--- a/Doku/Entscheidungsbaum_Unfallerkennung.xlsx
+++ b/Doku/Entscheidungsbaum_Unfallerkennung.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dao1wa2\Desktop\Thesis\hc-crashdetection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\02Master\6.SS22 - Masterarbeit\MasterArbeit\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C422A318-62FE-46A7-BD07-B872BD61A814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E63A5-8794-42E5-9A22-780F6211FB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{A93D8E7B-FBF9-46AA-AE8D-98BD1DB11F5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A93D8E7B-FBF9-46AA-AE8D-98BD1DB11F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammengefasst" sheetId="1" r:id="rId1"/>
-    <sheet name="Original" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Original" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Nr.</t>
   </si>
@@ -75,12 +76,42 @@
   <si>
     <t>0/1</t>
   </si>
+  <si>
+    <t>KlassenID</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>No Motion</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>Unbekannt oder keine Videoaufnahme</t>
+  </si>
+  <si>
+    <t>Keine klassifizierbare Bewegung</t>
+  </si>
+  <si>
+    <t>Laufen</t>
+  </si>
+  <si>
+    <t>Fahren</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +134,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +158,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -156,12 +199,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,23 +234,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Gut" xfId="2" builtinId="26"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 3" xfId="1" builtinId="18"/>
+  <cellStyles count="4">
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -222,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -520,12 +566,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88BE235-8728-481B-A2B6-1070BF2B7FE7}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="11.5546875" style="3"/>
@@ -554,19 +600,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="6">
@@ -574,29 +620,29 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="7">
@@ -610,13 +656,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="6">
@@ -624,27 +670,27 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
       <c r="F8" s="6">
@@ -652,29 +698,29 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10">
         <v>1</v>
       </c>
       <c r="D11" s="7">
@@ -688,13 +734,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>40</v>
       </c>
       <c r="F12" s="6">
@@ -702,21 +748,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
         <v>0</v>
       </c>
       <c r="D14" s="7">
@@ -730,13 +776,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>40</v>
       </c>
       <c r="F15" s="6">
@@ -744,19 +790,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="7">
@@ -770,13 +816,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>44</v>
       </c>
       <c r="F18" s="6">
@@ -784,21 +830,21 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="7">
@@ -812,13 +858,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>45</v>
       </c>
       <c r="F21" s="6">
@@ -826,26 +872,26 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>1</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="10">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="8">
@@ -856,10 +902,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="8">
         <v>0</v>
       </c>
@@ -868,10 +914,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="8">
         <v>0</v>
       </c>
@@ -880,9 +926,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10">
         <v>1</v>
       </c>
       <c r="D26" s="7">
@@ -896,9 +942,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="7">
         <v>1</v>
       </c>
@@ -910,9 +956,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="7">
         <v>2</v>
       </c>
@@ -924,11 +970,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="7">
@@ -942,9 +988,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="7">
         <v>1</v>
       </c>
@@ -956,9 +1002,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="7">
         <v>2</v>
       </c>
@@ -970,11 +1016,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10">
         <v>3</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="7">
@@ -988,9 +1034,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="7">
         <v>1</v>
       </c>
@@ -1002,9 +1048,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="7">
         <v>2</v>
       </c>
@@ -1016,13 +1062,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>2</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="10">
+        <v>2</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="7">
@@ -1036,9 +1082,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="7">
         <v>1</v>
       </c>
@@ -1050,9 +1096,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="7">
         <v>2</v>
       </c>
@@ -1064,11 +1110,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12">
-        <v>2</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="7">
@@ -1082,9 +1128,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="7">
         <v>1</v>
       </c>
@@ -1096,9 +1142,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="7">
         <v>2</v>
       </c>
@@ -1110,11 +1156,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10">
         <v>3</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="7">
@@ -1128,9 +1174,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="7">
         <v>1</v>
       </c>
@@ -1142,9 +1188,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="7">
         <v>2</v>
       </c>
@@ -1157,23 +1203,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D6:D7"/>
@@ -1190,21 +1228,87 @@
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B607B001-B3F9-4753-AB23-9C4CDBE78204}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7823E078-9F50-489B-AEC0-F964D3270D31}">
   <dimension ref="A1:H61"/>
   <sheetViews>
@@ -1212,7 +1316,7 @@
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="11.5546875" style="1"/>
     <col min="9" max="16384" width="11.5546875" style="1"/>
@@ -2155,6 +2259,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A44:A61"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A26:A43"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
@@ -2165,28 +2289,8 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A26:A43"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A44:A61"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
     <mergeCell ref="B20:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
